--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Colonnello/Desktop/Code/JavaScript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AEE7CC4E-C282-1248-82D0-5496C955E135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AC072878-DDBE-B84D-8CE4-A338AB653A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="2700" windowWidth="28240" windowHeight="17440" xr2:uid="{4A088E69-0764-4B43-B436-7916237CE40A}"/>
+    <workbookView xWindow="4980" yWindow="2620" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{4A088E69-0764-4B43-B436-7916237CE40A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="02.表格" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="19" uniqueCount="7">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="42" uniqueCount="30">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +65,80 @@
   <si>
     <t>花果山</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.10.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.10.25</t>
+  </si>
+  <si>
+    <t>2016.10.26</t>
+  </si>
+  <si>
+    <t>2016.10.27</t>
+  </si>
+  <si>
+    <t>2016.10.28</t>
+  </si>
+  <si>
+    <t>2016.10.29</t>
+  </si>
+  <si>
+    <t>2016.10.30</t>
+  </si>
+  <si>
+    <t>2016.10.31</t>
+  </si>
+  <si>
+    <t>2016.10.32</t>
+  </si>
+  <si>
+    <t>2016.10.33</t>
+  </si>
+  <si>
+    <t>2016.10.34</t>
+  </si>
+  <si>
+    <t>2016.10.35</t>
+  </si>
+  <si>
+    <t>2016.10.36</t>
+  </si>
+  <si>
+    <t>2016.10.37</t>
+  </si>
+  <si>
+    <t>2016.10.38</t>
+  </si>
+  <si>
+    <t>2016.10.39</t>
+  </si>
+  <si>
+    <t>2016.10.40</t>
+  </si>
+  <si>
+    <t>2016.10.41</t>
+  </si>
+  <si>
+    <t>2016.10.42</t>
   </si>
 </sst>
 </file>
@@ -429,8 +504,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51E4886-34EC-EA48-BF67-22473C943239}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,4 +598,300 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CA9453-39CD-BD42-B686-9BFC176FB7A5}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>300</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7">
+        <v>300</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>300</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
+      </c>
+      <c r="C10">
+        <v>300</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>500</v>
+      </c>
+      <c r="C11">
+        <v>300</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>500</v>
+      </c>
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>500</v>
+      </c>
+      <c r="C13">
+        <v>300</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>500</v>
+      </c>
+      <c r="C14">
+        <v>300</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>500</v>
+      </c>
+      <c r="C15">
+        <v>300</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>500</v>
+      </c>
+      <c r="C16">
+        <v>300</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>500</v>
+      </c>
+      <c r="C17">
+        <v>300</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>500</v>
+      </c>
+      <c r="C18">
+        <v>300</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>500</v>
+      </c>
+      <c r="C19">
+        <v>300</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>500</v>
+      </c>
+      <c r="C20">
+        <v>300</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>